--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>REQUISITOS DO SISTEMA</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Peças**</t>
   </si>
   <si>
-    <t>Contratos</t>
-  </si>
-  <si>
     <t>Matérias</t>
   </si>
   <si>
@@ -259,6 +256,18 @@
   </si>
   <si>
     <t>5 Dias</t>
+  </si>
+  <si>
+    <t>Tipo de Contratos</t>
+  </si>
+  <si>
+    <t>Orgao Emissor</t>
+  </si>
+  <si>
+    <t>Nacionalidade</t>
+  </si>
+  <si>
+    <t>Tipo Tratamamento</t>
   </si>
 </sst>
 </file>
@@ -290,15 +299,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -306,11 +321,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,11 +363,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -664,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -672,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -683,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -702,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -713,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -724,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -735,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -746,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -757,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -768,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -779,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -790,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -801,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -812,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -823,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -834,7 +881,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -845,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
@@ -857,7 +904,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5">
         <v>7</v>
@@ -869,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -879,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
@@ -891,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
@@ -900,10 +947,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -911,10 +958,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
@@ -922,10 +969,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -933,7 +980,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
@@ -941,7 +988,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
@@ -955,148 +1002,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" activeCellId="1" sqref="C3 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="13" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
-      <c r="A2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
+      <c r="A14" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Requisitos.xlsx
+++ b/Requisitos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>REQUISITOS DO SISTEMA</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Tipo Tratamamento</t>
+  </si>
+  <si>
+    <t>Endereçamento</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1008,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="1" sqref="C3 C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1136,13 +1139,16 @@
       <c r="A12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="16" t="s">
         <v>49</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4">
